--- a/2022/Symphony/Others/DSR Wise Retail List.xlsx
+++ b/2022/Symphony/Others/DSR Wise Retail List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Rasel" sheetId="1" r:id="rId1"/>
@@ -2241,17 +2241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2272,9 +2263,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2292,6 +2280,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2578,7 +2578,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2594,1291 +2594,1291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="18"/>
+      <c r="C2" s="3">
         <v>40</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>1753772886</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>1750137332</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>1737600335</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>1738708100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>1706059000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>1744752366</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>1717853880</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>1736044874</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <v>1738633382</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <v>1711907942</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <v>1719792350</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>1737818781</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="11">
         <v>1747325474</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>1729926081</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="11">
         <v>1916313509</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>1774358894</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>1717290128</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>1713674466</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
         <v>1919083573</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="12">
         <v>1729390377</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
         <v>1773324451</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>1761236031</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>1714659564</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>1788969994</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>1850440440</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="8">
         <v>1761799991</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="8">
         <v>1739617117</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="8">
         <v>1718184691</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <v>1763074323</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="9">
         <v>1744982090</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <v>1725093894</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="9">
         <v>1718056926</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="8">
         <v>1723771230</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>34</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="8">
         <v>1712617115</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>35</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="8">
         <v>1713342035</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>36</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="8">
         <v>1839178501</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>37</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="8">
         <v>1745743895</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>38</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="8">
         <v>1738027070</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>39</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="8">
         <v>1716707570</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>40</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="9">
         <v>1715836897</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>42</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="6">
         <v>43</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>44</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="17"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="17"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="17"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:G3"/>
@@ -3930,1259 +3930,1259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="18"/>
+      <c r="C2" s="3">
         <v>42</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>1717290133</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>1689614865</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>1711241521</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>1737495544</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1711339256</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1714504071</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1727608308</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>1624307747</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>1711412755</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1712627820</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>1722303344</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>1717424852</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>1733192727</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>1731003154</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>1719716640</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>1710153311</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>1722846938</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>1718407567</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>1714232353</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>1740215185</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>1713779659</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>1733405830</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>1723303818</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>1723656320</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>1718673960</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>1786855252</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>1710865967</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>1727474835</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>1713698589</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>1713786903</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>1777312980</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>1723266045</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>1717299513</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>1726359224</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>1770800299</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>1717670951</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>1632005795</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>1823369468</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>1635004622</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>1722361252</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>1713762754</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>1711466032</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="6">
         <v>43</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>44</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5214,446 +5214,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="18"/>
+      <c r="C2" s="3">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>1727836789</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>1716697790</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>1712688979</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>1716034885</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1723246584</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1733624262</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1743942020</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>1761748213</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>1729438268</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1718911905</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>1742416611</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>1765002244</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>1777033379</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>1712206639</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>1725821212</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>1740976030</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>1725821212</v>
       </c>
     </row>
@@ -5687,1179 +5687,1179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="18"/>
+      <c r="C2" s="3">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>1717821743</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>1711245981</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>1713743854</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>1713703375</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1749152530</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1712021615</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1729190349</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>1733849693</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>1550004066</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1722904402</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>1721949258</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>1711418796</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>1711971615</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>1710603321</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>1726988922</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>1733133178</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>1780142020</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>1724296017</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>1764725398</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>1712683626</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>1722946475</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>1721665522</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>1710029262</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>1716261122</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>1723644753</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>1737057481</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>1789726772</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>1750599676</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>1721337294</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>30</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>1706060062</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>31</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>1739280270</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>32</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <v>1712481870</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>33</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <v>1712192700</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>34</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="6">
         <v>1738440660</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>35</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="6">
         <v>1303531985</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>36</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="6">
         <v>1732403462</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>37</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="6">
         <v>1711343913</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>38</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="6">
         <v>1751412045</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>39</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="6">
         <v>1780996696</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>40</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="6">
         <v>1755068758</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <v>1717672389</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>42</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <v>1737104275</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="6">
         <v>43</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <v>1983404323</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>44</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="6">
         <v>1725244020</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6875,8 +6875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,697 +6891,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="18"/>
+      <c r="C2" s="3">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>1736454732</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>1719612623</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>1785327326</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>1735314874</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1718791837</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1718319327</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1711417268</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>1713700977</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>1722383337</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1797722277</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>1718281872</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>1758513029</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>1733273675</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>1813762995</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>1736238294</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>1716094816</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>1709447683</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>1734772238</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>1745870700</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>1711575658</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>1727836951</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>1716185786</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>1906270807</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>1827156464</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>1729816281</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>1788128175</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>1848015522</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>1752545428</v>
       </c>
     </row>
@@ -7591,7 +7591,9 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7608,868 +7610,868 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6">
+      <c r="B2" s="18"/>
+      <c r="C2" s="3">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>1713219888</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>1740999949</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>1829687777</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>1712499752</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1738251672</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1726546715</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>1748954455</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>1773490666</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>1711417773</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1724594510</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>1788163300</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>1748971734</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>1740001313</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>1729321210</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>1717256470</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>1723950563</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>1711062800</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>1773694486</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>1714944124</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>1710496836</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>1783458545</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>1714690333</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>1773644768</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>1722456263</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>1723504536</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>1725317484</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>1745312592</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>1748937325</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>1754557390</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>1701088932</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
   </sheetData>
   <sortState ref="B4:J91">

--- a/2022/Symphony/Others/DSR Wise Retail List.xlsx
+++ b/2022/Symphony/Others/DSR Wise Retail List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Rasel" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Haider" sheetId="5" r:id="rId4"/>
     <sheet name="Atik" sheetId="4" r:id="rId5"/>
     <sheet name="Tutul " sheetId="3" r:id="rId6"/>
-    <sheet name="Saiul" sheetId="2" r:id="rId7"/>
+    <sheet name="Rubel" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rasel!$B$3:$G$3</definedName>
@@ -2120,9 +2120,6 @@
     <t>Aminul Islam Tutul</t>
   </si>
   <si>
-    <t>Md Safiul Islam</t>
-  </si>
-  <si>
     <t>Md Atik</t>
   </si>
   <si>
@@ -2133,6 +2130,9 @@
   </si>
   <si>
     <t>Rasel Ahmed</t>
+  </si>
+  <si>
+    <t>Md Tutul Ali</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +2578,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -5239,7 +5239,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -6875,8 +6875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,8 +7604,8 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="17" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G2" s="18"/>
     </row>
